--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="278">
   <si>
     <t>Id</t>
   </si>
@@ -46,19 +46,22 @@
     <t>Check that call by city name returns 200 response with valid city name</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>OW-2</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Check call by city name with invalid city name</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>OW-2</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Check call by city name with invalid city name</t>
   </si>
   <si>
     <t>OW-3</t>
@@ -1058,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -1068,13 +1071,13 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -1087,16 +1090,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -1106,16 +1109,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
@@ -1125,16 +1128,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
@@ -1144,16 +1147,16 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -1163,16 +1166,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -1182,16 +1185,16 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
@@ -1201,16 +1204,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
@@ -1220,37 +1223,37 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
@@ -1260,16 +1263,16 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>12</v>
@@ -1279,13 +1282,13 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
@@ -1298,16 +1301,16 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>12</v>
@@ -1317,16 +1320,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>12</v>
@@ -1336,13 +1339,13 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
@@ -1355,16 +1358,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>12</v>
@@ -1374,16 +1377,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>12</v>
@@ -1393,16 +1396,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>12</v>
@@ -1412,16 +1415,16 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>12</v>
@@ -1431,16 +1434,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>12</v>
@@ -1450,37 +1453,37 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G25" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>12</v>
@@ -1490,37 +1493,37 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>12</v>
@@ -1530,16 +1533,16 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>12</v>
@@ -1549,16 +1552,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>12</v>
@@ -1568,13 +1571,13 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>11</v>
@@ -1587,16 +1590,16 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>12</v>
@@ -1606,37 +1609,37 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>12</v>
@@ -1646,34 +1649,34 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>11</v>
@@ -1686,16 +1689,16 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>12</v>
@@ -1705,16 +1708,16 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>12</v>
@@ -1724,16 +1727,16 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>12</v>
@@ -1743,34 +1746,34 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>11</v>
@@ -1783,37 +1786,37 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>12</v>
@@ -1823,16 +1826,16 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>12</v>
@@ -1842,16 +1845,16 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>12</v>
@@ -1861,16 +1864,16 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>12</v>
@@ -1880,16 +1883,16 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>12</v>
@@ -1899,16 +1902,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>12</v>
@@ -1918,16 +1921,16 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>12</v>
@@ -1937,16 +1940,16 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>12</v>
@@ -1956,16 +1959,16 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>12</v>
@@ -1975,16 +1978,16 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>12</v>
@@ -1994,16 +1997,16 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>12</v>
@@ -2013,12 +2016,12 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>9</v>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>14</v>
@@ -2045,7 +2048,7 @@
         <v>15</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>12</v>
@@ -2054,13 +2057,13 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>11</v>
@@ -2072,16 +2075,16 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>12</v>
@@ -2090,16 +2093,16 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>12</v>
@@ -2108,16 +2111,16 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>12</v>
@@ -2126,16 +2129,16 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>12</v>
@@ -2144,16 +2147,16 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>12</v>
@@ -2162,16 +2165,16 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>12</v>
@@ -2180,16 +2183,16 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>12</v>
@@ -2198,37 +2201,37 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65" s="8"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>12</v>
@@ -2237,16 +2240,16 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>12</v>
@@ -2255,13 +2258,13 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>11</v>
@@ -2273,16 +2276,16 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>12</v>
@@ -2291,16 +2294,16 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>12</v>
@@ -2309,13 +2312,13 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>11</v>
@@ -2327,16 +2330,16 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>12</v>
@@ -2345,16 +2348,16 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>12</v>
@@ -2363,16 +2366,16 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>12</v>
@@ -2381,16 +2384,16 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>12</v>
@@ -2399,13 +2402,13 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>11</v>
@@ -2417,37 +2420,37 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G77" s="8"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>12</v>
@@ -2456,37 +2459,37 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G79" s="8"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>12</v>
@@ -2495,16 +2498,16 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>12</v>
@@ -2513,16 +2516,16 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>12</v>
@@ -2531,16 +2534,16 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>12</v>
@@ -2549,16 +2552,16 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>12</v>
@@ -2567,16 +2570,16 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>12</v>
@@ -2585,16 +2588,16 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>12</v>
@@ -2603,16 +2606,16 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>12</v>
@@ -2621,16 +2624,16 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>12</v>
@@ -2639,16 +2642,16 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>12</v>
@@ -2657,16 +2660,16 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>12</v>
@@ -2675,16 +2678,16 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>12</v>
@@ -2693,18 +2696,18 @@
     </row>
     <row r="92">
       <c r="A92" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>11</v>
@@ -2716,16 +2719,16 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>12</v>
@@ -2734,34 +2737,34 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G95" s="8"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>11</v>
@@ -2773,34 +2776,34 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G97" s="8"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>11</v>
@@ -2812,13 +2815,13 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>11</v>
@@ -2830,13 +2833,13 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>11</v>
@@ -2848,18 +2851,18 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>11</v>
@@ -2871,16 +2874,16 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>12</v>
@@ -2889,16 +2892,16 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>12</v>
@@ -2907,16 +2910,16 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>12</v>
@@ -2925,16 +2928,16 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>12</v>
@@ -2943,13 +2946,13 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>11</v>
@@ -2961,16 +2964,16 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>12</v>
@@ -2979,37 +2982,37 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G109" s="8"/>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>12</v>
@@ -3018,16 +3021,16 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>12</v>
@@ -3036,13 +3039,13 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>11</v>
@@ -3054,16 +3057,16 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>12</v>
@@ -3072,16 +3075,16 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>12</v>
@@ -3090,16 +3093,16 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>12</v>
@@ -3108,16 +3111,16 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>12</v>
@@ -3126,37 +3129,37 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G117" s="8"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>12</v>
@@ -3165,39 +3168,39 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G119" s="8"/>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>11</v>
@@ -3209,16 +3212,16 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>12</v>
@@ -3227,58 +3230,58 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G123" s="8"/>
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G124" s="8"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>12</v>
@@ -3287,58 +3290,58 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G126" s="8"/>
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G127" s="8"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>12</v>
@@ -3347,16 +3350,16 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>12</v>
@@ -3365,18 +3368,18 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>11</v>
@@ -3388,55 +3391,55 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G132" s="8"/>
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G133" s="8"/>
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>11</v>
@@ -3448,34 +3451,34 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G135" s="8"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>11</v>
@@ -3487,13 +3490,13 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>11</v>
@@ -3505,34 +3508,34 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G138" s="8"/>
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>11</v>
@@ -3544,37 +3547,37 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G140" s="8"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>12</v>
@@ -3583,58 +3586,58 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G142" s="8"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="G143" s="8"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>12</v>
@@ -3643,22 +3646,22 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G145" s="8"/>
     </row>
